--- a/output/StructureDefinition-cgm-data-submission-bundle.xlsx
+++ b/output/StructureDefinition-cgm-data-submission-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T14:02:14-05:00</t>
+    <t>2024-05-06T15:49:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
